--- a/altro/hera.xlsx
+++ b/altro/hera.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="1182">
   <si>
     <t>A.COSTA (VIA)</t>
   </si>
@@ -7200,6 +7200,9 @@
   </si>
   <si>
     <t>splittato a causa del 99</t>
+  </si>
+  <si>
+    <t>non è possibile distinguere!</t>
   </si>
 </sst>
 </file>
@@ -7316,7 +7319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7330,6 +7333,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -20579,10 +20583,10 @@
   <dimension ref="A1:Q328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="O140" sqref="O140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25834,7 +25838,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -25888,7 +25892,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -25942,7 +25946,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -25996,7 +26000,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -26050,7 +26054,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -26076,21 +26080,17 @@
         <f>VLOOKUP(B101,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Porto</v>
       </c>
-      <c r="I101" t="str">
-        <f>IF(COUNTIF(B:B,B101)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J101" t="str">
-        <f>IF(COUNTIF(B:B,B101)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K101" t="str">
-        <f>IF(COUNTIF(B:B,B101)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L101" t="str">
-        <f>IF(COUNTIF(B:B,B101)=1,"null","")</f>
-        <v/>
+      <c r="I101">
+        <v>11</v>
+      </c>
+      <c r="J101">
+        <v>18</v>
+      </c>
+      <c r="K101">
+        <v>99999</v>
+      </c>
+      <c r="L101">
+        <v>99998</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="15"/>
@@ -26100,8 +26100,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -26127,21 +26130,17 @@
         <f>VLOOKUP(B102,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Porto</v>
       </c>
-      <c r="I102" t="str">
-        <f>IF(COUNTIF(B:B,B102)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J102" t="str">
-        <f>IF(COUNTIF(B:B,B102)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K102" t="str">
-        <f>IF(COUNTIF(B:B,B102)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L102" t="str">
-        <f>IF(COUNTIF(B:B,B102)=1,"null","")</f>
-        <v/>
+      <c r="I102">
+        <v>99999</v>
+      </c>
+      <c r="J102">
+        <v>99998</v>
+      </c>
+      <c r="K102">
+        <v>99999</v>
+      </c>
+      <c r="L102">
+        <v>99998</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="15"/>
@@ -26151,8 +26150,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -26178,21 +26180,17 @@
         <f>VLOOKUP(B103,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Porto</v>
       </c>
-      <c r="I103" t="str">
-        <f>IF(COUNTIF(B:B,B103)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J103" t="str">
-        <f>IF(COUNTIF(B:B,B103)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K103" t="str">
-        <f>IF(COUNTIF(B:B,B103)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L103" t="str">
-        <f>IF(COUNTIF(B:B,B103)=1,"null","")</f>
-        <v/>
+      <c r="I103">
+        <v>99999</v>
+      </c>
+      <c r="J103">
+        <v>99998</v>
+      </c>
+      <c r="K103">
+        <v>99999</v>
+      </c>
+      <c r="L103">
+        <v>99998</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="15"/>
@@ -26202,8 +26200,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -26229,21 +26230,17 @@
         <f>VLOOKUP(B104,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Porto</v>
       </c>
-      <c r="I104" t="str">
-        <f>IF(COUNTIF(B:B,B104)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J104" t="str">
-        <f>IF(COUNTIF(B:B,B104)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K104" t="str">
-        <f>IF(COUNTIF(B:B,B104)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L104" t="str">
-        <f>IF(COUNTIF(B:B,B104)=1,"null","")</f>
-        <v/>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>9</v>
+      </c>
+      <c r="L104">
+        <v>16</v>
       </c>
       <c r="M104" t="str">
         <f t="shared" si="15"/>
@@ -26253,8 +26250,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
@@ -26304,8 +26304,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -26355,8 +26358,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -26406,8 +26412,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -26457,8 +26466,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -26484,22 +26496,6 @@
         <f>VLOOKUP(B109,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via della Grada</v>
       </c>
-      <c r="I109" t="str">
-        <f>IF(COUNTIF(B:B,B109)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J109" t="str">
-        <f>IF(COUNTIF(B:B,B109)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K109" t="str">
-        <f>IF(COUNTIF(B:B,B109)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L109" t="str">
-        <f>IF(COUNTIF(B:B,B109)=1,"null","")</f>
-        <v/>
-      </c>
       <c r="M109" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
@@ -26508,8 +26504,14 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -26535,22 +26537,6 @@
         <f>VLOOKUP(B110,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via della Grada</v>
       </c>
-      <c r="I110" t="str">
-        <f>IF(COUNTIF(B:B,B110)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J110" t="str">
-        <f>IF(COUNTIF(B:B,B110)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K110" t="str">
-        <f>IF(COUNTIF(B:B,B110)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L110" t="str">
-        <f>IF(COUNTIF(B:B,B110)=1,"null","")</f>
-        <v/>
-      </c>
       <c r="M110" t="str">
         <f t="shared" si="15"/>
         <v>2</v>
@@ -26559,8 +26545,14 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q110" s="13" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -26610,8 +26602,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -26661,8 +26656,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -26712,8 +26710,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -26763,8 +26764,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -26814,8 +26818,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>112</v>
       </c>
@@ -26865,8 +26872,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -26916,8 +26926,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>114</v>
       </c>
@@ -26943,21 +26956,17 @@
         <f>VLOOKUP(B118,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Fratelli Rosselli</v>
       </c>
-      <c r="I118" t="str">
-        <f>IF(COUNTIF(B:B,B118)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J118" t="str">
-        <f>IF(COUNTIF(B:B,B118)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K118" t="str">
-        <f>IF(COUNTIF(B:B,B118)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L118" t="str">
-        <f>IF(COUNTIF(B:B,B118)=1,"null","")</f>
-        <v/>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
       </c>
       <c r="M118" t="str">
         <f t="shared" si="15"/>
@@ -26967,8 +26976,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -26994,21 +27006,17 @@
         <f>VLOOKUP(B119,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Fratelli Rosselli</v>
       </c>
-      <c r="I119" t="str">
-        <f>IF(COUNTIF(B:B,B119)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J119" t="str">
-        <f>IF(COUNTIF(B:B,B119)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K119" t="str">
-        <f>IF(COUNTIF(B:B,B119)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L119" t="str">
-        <f>IF(COUNTIF(B:B,B119)=1,"null","")</f>
-        <v/>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>6</v>
+      </c>
+      <c r="K119">
+        <v>99999</v>
+      </c>
+      <c r="L119">
+        <v>99998</v>
       </c>
       <c r="M119" t="str">
         <f t="shared" si="15"/>
@@ -27018,8 +27026,11 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116</v>
       </c>
@@ -27069,8 +27080,11 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>117</v>
       </c>
@@ -27120,8 +27134,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>118</v>
       </c>
@@ -27171,8 +27188,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>119</v>
       </c>
@@ -27222,8 +27242,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>120</v>
       </c>
@@ -27273,8 +27296,11 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -27324,8 +27350,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122</v>
       </c>
@@ -27351,21 +27380,17 @@
         <f>VLOOKUP(B126,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Fondazza</v>
       </c>
-      <c r="I126" t="str">
-        <f>IF(COUNTIF(B:B,B126)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J126" t="str">
-        <f>IF(COUNTIF(B:B,B126)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K126" t="str">
-        <f>IF(COUNTIF(B:B,B126)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L126" t="str">
-        <f>IF(COUNTIF(B:B,B126)=1,"null","")</f>
-        <v/>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>41</v>
+      </c>
+      <c r="L126">
+        <v>40</v>
       </c>
       <c r="M126" t="str">
         <f t="shared" si="15"/>
@@ -27375,8 +27400,11 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>123</v>
       </c>
@@ -27402,21 +27430,17 @@
         <f>VLOOKUP(B127,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Fondazza</v>
       </c>
-      <c r="I127" t="str">
-        <f>IF(COUNTIF(B:B,B127)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J127" t="str">
-        <f>IF(COUNTIF(B:B,B127)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K127" t="str">
-        <f>IF(COUNTIF(B:B,B127)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L127" t="str">
-        <f>IF(COUNTIF(B:B,B127)=1,"null","")</f>
-        <v/>
+      <c r="I127">
+        <v>43</v>
+      </c>
+      <c r="J127">
+        <v>99999</v>
+      </c>
+      <c r="K127">
+        <v>42</v>
+      </c>
+      <c r="L127">
+        <v>99998</v>
       </c>
       <c r="M127" t="str">
         <f t="shared" si="15"/>
@@ -27426,8 +27450,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124</v>
       </c>
@@ -27477,8 +27504,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>125</v>
       </c>
@@ -27504,21 +27534,17 @@
         <f>VLOOKUP(B129,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Fossato</v>
       </c>
-      <c r="I129" t="str">
-        <f>IF(COUNTIF(B:B,B129)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J129" t="str">
-        <f>IF(COUNTIF(B:B,B129)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K129" t="str">
-        <f>IF(COUNTIF(B:B,B129)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L129" t="str">
-        <f>IF(COUNTIF(B:B,B129)=1,"null","")</f>
-        <v/>
+      <c r="I129">
+        <v>27</v>
+      </c>
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129">
+        <v>99999</v>
+      </c>
+      <c r="L129">
+        <v>99998</v>
       </c>
       <c r="M129" t="str">
         <f t="shared" si="15"/>
@@ -27528,8 +27554,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -27555,21 +27584,17 @@
         <f>VLOOKUP(B130,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via del Fossato</v>
       </c>
-      <c r="I130" t="str">
-        <f>IF(COUNTIF(B:B,B130)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J130" t="str">
-        <f>IF(COUNTIF(B:B,B130)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K130" t="str">
-        <f>IF(COUNTIF(B:B,B130)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L130" t="str">
-        <f>IF(COUNTIF(B:B,B130)=1,"null","")</f>
-        <v/>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>25</v>
+      </c>
+      <c r="L130">
+        <v>10</v>
       </c>
       <c r="M130" t="str">
         <f t="shared" si="15"/>
@@ -27579,8 +27604,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>127</v>
       </c>
@@ -27630,8 +27658,11 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>128</v>
       </c>
@@ -27657,21 +27688,17 @@
         <f>VLOOKUP(B132,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Galliera</v>
       </c>
-      <c r="I132" t="str">
-        <f>IF(COUNTIF(B:B,B132)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J132" t="str">
-        <f>IF(COUNTIF(B:B,B132)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K132" t="str">
-        <f>IF(COUNTIF(B:B,B132)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L132" t="str">
-        <f>IF(COUNTIF(B:B,B132)=1,"null","")</f>
-        <v/>
+      <c r="I132">
+        <v>99999</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>99999</v>
+      </c>
+      <c r="L132">
+        <v>28</v>
       </c>
       <c r="M132" t="str">
         <f t="shared" si="15"/>
@@ -27681,8 +27708,11 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>129</v>
       </c>
@@ -27708,21 +27738,17 @@
         <f>VLOOKUP(B133,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Galliera</v>
       </c>
-      <c r="I133" t="str">
-        <f>IF(COUNTIF(B:B,B133)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J133" t="str">
-        <f>IF(COUNTIF(B:B,B133)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K133" t="str">
-        <f>IF(COUNTIF(B:B,B133)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L133" t="str">
-        <f>IF(COUNTIF(B:B,B133)=1,"null","")</f>
-        <v/>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>99998</v>
+      </c>
+      <c r="K133">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>99998</v>
       </c>
       <c r="M133" t="str">
         <f t="shared" ref="M133:M196" si="23">IF(ISNUMBER(SEARCH("Primo",D133)),"1",IF(ISNUMBER(SEARCH("Secondo",D133)),"2",IF(ISNUMBER(SEARCH("Terzo",D133)),"3",IF(ISNUMBER(SEARCH("Quarto",D133)),"4"))))</f>
@@ -27732,8 +27758,11 @@
         <f t="shared" ref="N133:N196" si="24">IF(ISNUMBER(SEARCH("Lunedì",D133)),"1",IF(ISNUMBER(SEARCH("Martedì",D133)),"2",IF(ISNUMBER(SEARCH("Mercoledì",D133)),"3",IF(ISNUMBER(SEARCH("Giovedì",D133)),"4",IF(ISNUMBER(SEARCH("Venerdì",D133)),"5",IF(ISNUMBER(SEARCH("Sabato",D133)),"6",IF(ISNUMBER(SEARCH("Domenica",D133)),"7")))))))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>130</v>
       </c>
@@ -27759,21 +27788,17 @@
         <f>VLOOKUP(B134,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Galliera</v>
       </c>
-      <c r="I134" t="str">
-        <f>IF(COUNTIF(B:B,B134)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J134" t="str">
-        <f>IF(COUNTIF(B:B,B134)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K134" t="str">
-        <f>IF(COUNTIF(B:B,B134)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L134" t="str">
-        <f>IF(COUNTIF(B:B,B134)=1,"null","")</f>
-        <v/>
+      <c r="I134">
+        <v>99999</v>
+      </c>
+      <c r="J134">
+        <v>30</v>
+      </c>
+      <c r="K134">
+        <v>99999</v>
+      </c>
+      <c r="L134">
+        <v>56</v>
       </c>
       <c r="M134" t="str">
         <f t="shared" si="23"/>
@@ -27783,8 +27808,11 @@
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>131</v>
       </c>
@@ -27810,21 +27838,17 @@
         <f>VLOOKUP(B135,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Galliera</v>
       </c>
-      <c r="I135" t="str">
-        <f>IF(COUNTIF(B:B,B135)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J135" t="str">
-        <f>IF(COUNTIF(B:B,B135)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K135" t="str">
-        <f>IF(COUNTIF(B:B,B135)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L135" t="str">
-        <f>IF(COUNTIF(B:B,B135)=1,"null","")</f>
-        <v/>
+      <c r="I135">
+        <v>69</v>
+      </c>
+      <c r="J135">
+        <v>58</v>
+      </c>
+      <c r="K135">
+        <v>99999</v>
+      </c>
+      <c r="L135">
+        <v>99998</v>
       </c>
       <c r="M135" t="str">
         <f t="shared" si="23"/>
@@ -27834,8 +27858,11 @@
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>132</v>
       </c>
@@ -27861,21 +27888,17 @@
         <f>VLOOKUP(B136,'Hera--&gt;Google'!B:F,5,FALSE)</f>
         <v>Via Galliera</v>
       </c>
-      <c r="I136" t="str">
-        <f>IF(COUNTIF(B:B,B136)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="J136" t="str">
-        <f>IF(COUNTIF(B:B,B136)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="K136" t="str">
-        <f>IF(COUNTIF(B:B,B136)=1,"null","")</f>
-        <v/>
-      </c>
-      <c r="L136" t="str">
-        <f>IF(COUNTIF(B:B,B136)=1,"null","")</f>
-        <v/>
+      <c r="I136">
+        <v>25</v>
+      </c>
+      <c r="J136">
+        <v>99998</v>
+      </c>
+      <c r="K136">
+        <v>67</v>
+      </c>
+      <c r="L136">
+        <v>99998</v>
       </c>
       <c r="M136" t="str">
         <f t="shared" si="23"/>
@@ -27885,8 +27908,11 @@
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>133</v>
       </c>
@@ -27936,8 +27962,11 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>134</v>
       </c>
@@ -27987,8 +28016,11 @@
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>135</v>
       </c>
@@ -28038,8 +28070,11 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>136</v>
       </c>
@@ -28090,7 +28125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>137</v>
       </c>
@@ -28141,7 +28176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>138</v>
       </c>
@@ -28192,7 +28227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>139</v>
       </c>
@@ -28243,7 +28278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>140</v>
       </c>
@@ -42151,19 +42186,19 @@
       </c>
       <c r="F97" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I101,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:11,</v>
       </c>
       <c r="G97" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J101,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:18,</v>
       </c>
       <c r="H97" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K101,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I97" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L101,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J97" t="str">
         <f>CONCATENATE("day:",Complessivo!N101,",")</f>
@@ -42197,19 +42232,19 @@
       </c>
       <c r="F98" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I102,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:99999,</v>
       </c>
       <c r="G98" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J102,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:99998,</v>
       </c>
       <c r="H98" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K102,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I98" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L102,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J98" t="str">
         <f>CONCATENATE("day:",Complessivo!N102,",")</f>
@@ -42243,19 +42278,19 @@
       </c>
       <c r="F99" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I103,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:99999,</v>
       </c>
       <c r="G99" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J103,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:99998,</v>
       </c>
       <c r="H99" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K103,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I99" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L103,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J99" t="str">
         <f>CONCATENATE("day:",Complessivo!N103,",")</f>
@@ -42289,19 +42324,19 @@
       </c>
       <c r="F100" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I104,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:1,</v>
       </c>
       <c r="G100" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J104,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:2,</v>
       </c>
       <c r="H100" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K104,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:9,</v>
       </c>
       <c r="I100" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L104,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:16,</v>
       </c>
       <c r="J100" t="str">
         <f>CONCATENATE("day:",Complessivo!N104,",")</f>
@@ -42517,21 +42552,21 @@
         <f>CONCATENATE("viaGoogle:""",Complessivo!H109,""",")</f>
         <v>viaGoogle:"Via della Grada",</v>
       </c>
-      <c r="F105" t="str">
-        <f>CONCATENATE("minDisp:",Complessivo!I109,",")</f>
-        <v>minDisp:,</v>
-      </c>
-      <c r="G105" t="str">
-        <f>CONCATENATE("minPari:",Complessivo!J109,",")</f>
-        <v>minPari:,</v>
-      </c>
-      <c r="H105" t="str">
-        <f>CONCATENATE("maxDisp:",Complessivo!K109,",")</f>
-        <v>maxDisp:,</v>
-      </c>
-      <c r="I105" t="str">
-        <f>CONCATENATE("maxPari:",Complessivo!L109,",")</f>
-        <v>maxPari:,</v>
+      <c r="F105" t="e">
+        <f>CONCATENATE("minDisp:",Complessivo!#REF!,",")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G105" t="e">
+        <f>CONCATENATE("minPari:",Complessivo!#REF!,",")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H105" t="e">
+        <f>CONCATENATE("maxDisp:",Complessivo!#REF!,",")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I105" t="e">
+        <f>CONCATENATE("maxPari:",Complessivo!#REF!,",")</f>
+        <v>#REF!</v>
       </c>
       <c r="J105" t="str">
         <f>CONCATENATE("day:",Complessivo!N109,",")</f>
@@ -42564,19 +42599,19 @@
         <v>viaGoogle:"Via della Grada",</v>
       </c>
       <c r="F106" t="str">
-        <f>CONCATENATE("minDisp:",Complessivo!I110,",")</f>
+        <f>CONCATENATE("minDisp:",Complessivo!I109,",")</f>
         <v>minDisp:,</v>
       </c>
       <c r="G106" t="str">
-        <f>CONCATENATE("minPari:",Complessivo!J110,",")</f>
+        <f>CONCATENATE("minPari:",Complessivo!J109,",")</f>
         <v>minPari:,</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE("maxDisp:",Complessivo!K110,",")</f>
+        <f>CONCATENATE("maxDisp:",Complessivo!K109,",")</f>
         <v>maxDisp:,</v>
       </c>
       <c r="I106" t="str">
-        <f>CONCATENATE("maxPari:",Complessivo!L110,",")</f>
+        <f>CONCATENATE("maxPari:",Complessivo!L109,",")</f>
         <v>maxPari:,</v>
       </c>
       <c r="J106" t="str">
@@ -42933,19 +42968,19 @@
       </c>
       <c r="F114" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I118,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:1,</v>
       </c>
       <c r="G114" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J118,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:2,</v>
       </c>
       <c r="H114" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K118,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:1,</v>
       </c>
       <c r="I114" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L118,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:4,</v>
       </c>
       <c r="J114" t="str">
         <f>CONCATENATE("day:",Complessivo!N118,",")</f>
@@ -42979,19 +43014,19 @@
       </c>
       <c r="F115" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I119,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:3,</v>
       </c>
       <c r="G115" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J119,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:6,</v>
       </c>
       <c r="H115" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K119,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I115" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L119,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J115" t="str">
         <f>CONCATENATE("day:",Complessivo!N119,",")</f>
@@ -43301,19 +43336,19 @@
       </c>
       <c r="F122" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I126,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:1,</v>
       </c>
       <c r="G122" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J126,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:2,</v>
       </c>
       <c r="H122" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K126,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:41,</v>
       </c>
       <c r="I122" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L126,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:40,</v>
       </c>
       <c r="J122" t="str">
         <f>CONCATENATE("day:",Complessivo!N126,",")</f>
@@ -43347,19 +43382,19 @@
       </c>
       <c r="F123" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I127,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:43,</v>
       </c>
       <c r="G123" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J127,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:99999,</v>
       </c>
       <c r="H123" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K127,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:42,</v>
       </c>
       <c r="I123" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L127,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J123" t="str">
         <f>CONCATENATE("day:",Complessivo!N127,",")</f>
@@ -43439,19 +43474,19 @@
       </c>
       <c r="F125" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I129,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:27,</v>
       </c>
       <c r="G125" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J129,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:12,</v>
       </c>
       <c r="H125" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K129,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I125" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L129,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J125" t="str">
         <f>CONCATENATE("day:",Complessivo!N129,",")</f>
@@ -43485,19 +43520,19 @@
       </c>
       <c r="F126" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I130,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:1,</v>
       </c>
       <c r="G126" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J130,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:2,</v>
       </c>
       <c r="H126" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K130,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:25,</v>
       </c>
       <c r="I126" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L130,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:10,</v>
       </c>
       <c r="J126" t="str">
         <f>CONCATENATE("day:",Complessivo!N130,",")</f>
@@ -43577,19 +43612,19 @@
       </c>
       <c r="F128" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I132,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:99999,</v>
       </c>
       <c r="G128" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J132,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:2,</v>
       </c>
       <c r="H128" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K132,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I128" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L132,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:28,</v>
       </c>
       <c r="J128" t="str">
         <f>CONCATENATE("day:",Complessivo!N132,",")</f>
@@ -43623,19 +43658,19 @@
       </c>
       <c r="F129" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I133,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:1,</v>
       </c>
       <c r="G129" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J133,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:99998,</v>
       </c>
       <c r="H129" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K133,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:23,</v>
       </c>
       <c r="I129" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L133,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J129" t="str">
         <f>CONCATENATE("day:",Complessivo!N133,",")</f>
@@ -43669,19 +43704,19 @@
       </c>
       <c r="F130" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I134,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:99999,</v>
       </c>
       <c r="G130" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J134,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:30,</v>
       </c>
       <c r="H130" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K134,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I130" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L134,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:56,</v>
       </c>
       <c r="J130" t="str">
         <f>CONCATENATE("day:",Complessivo!N134,",")</f>
@@ -43715,19 +43750,19 @@
       </c>
       <c r="F131" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I135,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:69,</v>
       </c>
       <c r="G131" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J135,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:58,</v>
       </c>
       <c r="H131" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K135,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:99999,</v>
       </c>
       <c r="I131" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L135,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J131" t="str">
         <f>CONCATENATE("day:",Complessivo!N135,",")</f>
@@ -43761,19 +43796,19 @@
       </c>
       <c r="F132" t="str">
         <f>CONCATENATE("minDisp:",Complessivo!I136,",")</f>
-        <v>minDisp:,</v>
+        <v>minDisp:25,</v>
       </c>
       <c r="G132" t="str">
         <f>CONCATENATE("minPari:",Complessivo!J136,",")</f>
-        <v>minPari:,</v>
+        <v>minPari:99998,</v>
       </c>
       <c r="H132" t="str">
         <f>CONCATENATE("maxDisp:",Complessivo!K136,",")</f>
-        <v>maxDisp:,</v>
+        <v>maxDisp:67,</v>
       </c>
       <c r="I132" t="str">
         <f>CONCATENATE("maxPari:",Complessivo!L136,",")</f>
-        <v>maxPari:,</v>
+        <v>maxPari:99998,</v>
       </c>
       <c r="J132" t="str">
         <f>CONCATENATE("day:",Complessivo!N136,",")</f>
